--- a/coding-challenge/lewitt-instructions/LeWittInstructions.xlsx
+++ b/coding-challenge/lewitt-instructions/LeWittInstructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidharris/Dropbox/QCA/Conferences/PCD2019/CodingChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E572639-E3D1-EB4E-9BD4-F52FC8219319}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7DBA1-AFD6-4C42-BB01-0E079AED9E6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>Wall Drawing #289 (1976)</t>
   </si>
   <si>
-    <t>A six-inch (15cm) grid covering each of the four black walls. White lines to points on the grid.\n1st wall: 24 lines from the center;\n2nd wall: 12 lines from the midpoint of each of the sides;\n3rd wall: 12 lines from each corner;\n4th wall: 24 lines from the center, 12 lines from the midpoint of each of the sides, 12 lines from each corner.</t>
-  </si>
-  <si>
     <t>Wall Drawing #295 (1976)</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>Wall Drawing #541 (1987)</t>
   </si>
   <si>
-    <t>On each of four walls, a tilted form with color ink washes superimposed.\n\nColor ink wash\n\nA First wall: The background is GG -Left plane: YRY; right plane: YBY; bottom plane: BRB\n\nB Second wall: The background is YY. Left plane: GBG; right plane: RGG; top plane: YGR\n\nC third wall: The background is RR. Left plane: GBB; right plane: RYG; bottom plane: GGY;\n\nD The background is BB. Left plane: GYB. right plane: GRR; top plane: YGY\n\nKey: Red = R; Yellow = Y; Blue = B; Gray = G</t>
-  </si>
-  <si>
     <t>Wall Drawing #614 (1989)</t>
   </si>
   <si>
@@ -776,6 +770,12 @@
   </si>
   <si>
     <t>Scribbles.</t>
+  </si>
+  <si>
+    <t>On each of four walls, a tilted form with color ink washes superimposed. Color ink wash. (A) First wall: The background is GG -Left plane: YRY; right plane: YBY; bottom plane: BRB (B) Second wall: The background is YY. Left plane: GBG; right plane: RGG; top plane: YGR (C) Third wall: The background is RR. Left plane: GBB; right plane: RYG; bottom plane: GGY; (D) The background is BB. Left plane: GYB. right plane: GRR; top plane: YGY Key: Red = R; Yellow = Y; Blue = B; Gray = G</t>
+  </si>
+  <si>
+    <t>A six-inch (15cm) grid covering each of the four black walls. White lines to points on the grid. 1st wall: 24 lines from the center; 2nd wall: 12 lines from the midpoint of each of the sides; 3rd wall: 12 lines from each corner; 4th wall: 24 lines from the center, 12 lines from the midpoint of each of the sides, 12 lines from each corner.</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,16 +1136,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1220,13 +1220,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1234,13 +1234,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1276,13 +1276,13 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1290,13 +1290,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,13 +1304,13 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1346,13 +1346,13 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1391,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1405,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1419,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -1430,13 +1430,13 @@
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1458,13 +1458,13 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,13 +1472,13 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,13 +1486,13 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,13 +1500,13 @@
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,13 +1514,13 @@
         <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1531,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -1545,7 +1545,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -1556,13 +1556,13 @@
         <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1570,13 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,7 +1587,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
         <v>30</v>
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
@@ -1612,13 +1612,13 @@
         <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,13 +1626,13 @@
         <v>139</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,13 +1640,13 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1654,13 @@
         <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1671,7 +1671,7 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
@@ -1682,13 +1682,13 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1696,13 @@
         <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1727,7 +1727,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -1738,13 +1738,13 @@
         <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1755,7 +1755,7 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
         <v>38</v>
@@ -1766,13 +1766,13 @@
         <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1780,13 @@
         <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1794,13 @@
         <v>254</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1808,13 @@
         <v>260</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1822,13 @@
         <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1839,10 +1839,10 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1850,13 @@
         <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1864,13 @@
         <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,13 +1892,13 @@
         <v>295</v>
       </c>
       <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
         <v>42</v>
-      </c>
-      <c r="C55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,13 +1906,13 @@
         <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,13 +1920,13 @@
         <v>328</v>
       </c>
       <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
         <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1934,13 +1934,13 @@
         <v>335</v>
       </c>
       <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" t="s">
         <v>46</v>
-      </c>
-      <c r="C58" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1948,13 +1948,13 @@
         <v>338</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1962,13 +1962,13 @@
         <v>340</v>
       </c>
       <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" t="s">
         <v>48</v>
-      </c>
-      <c r="C60" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,13 +1976,13 @@
         <v>343</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1990,13 +1990,13 @@
         <v>365</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2004,13 +2004,13 @@
         <v>366</v>
       </c>
       <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
         <v>50</v>
-      </c>
-      <c r="C63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2018,13 +2018,13 @@
         <v>370</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2032,13 +2032,13 @@
         <v>381</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2046,13 +2046,13 @@
         <v>386</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,13 +2060,13 @@
         <v>391</v>
       </c>
       <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
         <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2074,13 +2074,13 @@
         <v>392</v>
       </c>
       <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" t="s">
         <v>54</v>
-      </c>
-      <c r="C68" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2088,13 +2088,13 @@
         <v>396</v>
       </c>
       <c r="B69" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
         <v>56</v>
-      </c>
-      <c r="C69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2102,13 +2102,13 @@
         <v>413</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2116,13 +2116,13 @@
         <v>414</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2130,13 @@
         <v>415</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2144,13 +2144,13 @@
         <v>419</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2158,13 @@
         <v>422</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,13 +2172,13 @@
         <v>439</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2186,13 +2186,13 @@
         <v>462</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2200,13 @@
         <v>527</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2214,13 @@
         <v>541</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2228,13 @@
         <v>552</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,13 +2242,13 @@
         <v>579</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2256,13 @@
         <v>583</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2270,13 @@
         <v>584</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2284,13 +2284,13 @@
         <v>610</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2298,13 @@
         <v>614</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2312,13 +2312,13 @@
         <v>630</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2326,13 +2326,13 @@
         <v>631</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,13 +2340,13 @@
         <v>681</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,13 +2354,13 @@
         <v>684</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,13 +2368,13 @@
         <v>692</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2382,13 @@
         <v>715</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,13 +2396,13 @@
         <v>725</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2410,13 @@
         <v>766</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2424,13 @@
         <v>792</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,13 +2438,13 @@
         <v>793</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2452,13 @@
         <v>797</v>
       </c>
       <c r="B95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2466,13 @@
         <v>811</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,13 +2480,13 @@
         <v>821</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,13 +2494,13 @@
         <v>821</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2508,13 +2508,13 @@
         <v>822</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,13 +2522,13 @@
         <v>824</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2536,13 +2536,13 @@
         <v>852</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2550,13 +2550,13 @@
         <v>853</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,13 +2564,13 @@
         <v>880</v>
       </c>
       <c r="B103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2578,13 +2578,13 @@
         <v>901</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2592,13 +2592,13 @@
         <v>915</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,13 +2606,13 @@
         <v>957</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2620,13 +2620,13 @@
         <v>958</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,13 +2634,13 @@
         <v>959</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,13 +2648,13 @@
         <v>999</v>
       </c>
       <c r="B109" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2662,13 +2662,13 @@
         <v>1005</v>
       </c>
       <c r="B110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2676,13 @@
         <v>1037</v>
       </c>
       <c r="B111" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,13 +2690,13 @@
         <v>1042</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2704,13 +2704,13 @@
         <v>1046</v>
       </c>
       <c r="B113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2718,13 +2718,13 @@
         <v>1081</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2732,13 +2732,13 @@
         <v>1094</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
         <v>1112</v>
       </c>
       <c r="B116" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2760,13 +2760,13 @@
         <v>1152</v>
       </c>
       <c r="B117" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,13 +2774,13 @@
         <v>1171</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2788,13 +2788,13 @@
         <v>1180</v>
       </c>
       <c r="B119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,13 +2802,13 @@
         <v>1185</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2816,13 +2816,13 @@
         <v>1186</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2830,13 +2830,13 @@
         <v>1211</v>
       </c>
       <c r="B122" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2844,13 +2844,13 @@
         <v>1247</v>
       </c>
       <c r="B123" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2858,13 +2858,13 @@
         <v>1260</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2872,13 +2872,13 @@
         <v>1261</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
